--- a/public/template_assets/import/TemplateImport.xlsx
+++ b/public/template_assets/import/TemplateImport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\Practice\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelsen\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4AD8D8-2289-47D2-8E62-5DCA9FF919E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0220B0FB-4A48-4E54-AE76-58820107FDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>No</t>
   </si>
@@ -42,30 +42,12 @@
     <t>Tanggal Lahir</t>
   </si>
   <si>
-    <t>Terry Osborne</t>
-  </si>
-  <si>
-    <t>terry@mail.com</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Tammy Ontime</t>
-  </si>
-  <si>
-    <t>tammy@mail.com</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
-    <t>Honda Yamaha</t>
-  </si>
-  <si>
-    <t>hny@mail.com</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -78,13 +60,25 @@
     <t>08123456744</t>
   </si>
   <si>
-    <t>1997-12-31</t>
-  </si>
-  <si>
-    <t>2004-10-05</t>
-  </si>
-  <si>
     <t>12-03-2002</t>
+  </si>
+  <si>
+    <t>Contoh 2</t>
+  </si>
+  <si>
+    <t>Contoh 3</t>
+  </si>
+  <si>
+    <t>Contoh 1</t>
+  </si>
+  <si>
+    <t>contoh1@mail.com</t>
+  </si>
+  <si>
+    <t>contoh2@mail.com</t>
+  </si>
+  <si>
+    <t>contoh3@mail.com</t>
   </si>
 </sst>
 </file>
@@ -423,20 +417,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="17.1796875" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,70 +444,70 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
